--- a/data/output/FV2410_FV2404/UTILMD/55060.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55060.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19694" uniqueCount="1122">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19715" uniqueCount="1122">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3546,6 +3546,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U852" totalsRowShown="0">
+  <autoFilter ref="A1:U852"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3835,7 +3865,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U852"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -45450,5 +45483,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55060.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55060.xlsx
@@ -6517,7 +6517,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -8627,7 +8627,7 @@
         <v>1017</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -8789,7 +8789,7 @@
         <v>1018</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -8993,7 +8993,7 @@
         <v>1020</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -9197,7 +9197,7 @@
         <v>1022</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -9401,7 +9401,7 @@
         <v>1024</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -9605,7 +9605,7 @@
         <v>1026</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -9809,7 +9809,7 @@
         <v>1027</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -10617,7 +10617,7 @@
         <v>1030</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -10887,7 +10887,7 @@
         <v>1031</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -11307,7 +11307,7 @@
         <v>1034</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -11781,7 +11781,7 @@
         <v>1036</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -11975,54 +11975,54 @@
       </c>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
       <c r="J108" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="2" t="s">
         <v>1037</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N108" s="5" t="s">
+      <c r="N108" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O108" s="5" t="s">
+      <c r="O108" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5" t="s">
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
       <c r="U108" s="6" t="s">
         <v>1123</v>
       </c>
-      <c r="V108" s="5" t="s">
+      <c r="V108" s="2" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
         <v>1039</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -12385,7 +12385,7 @@
         <v>1040</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -12945,7 +12945,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -13413,7 +13413,7 @@
         <v>1041</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -14327,7 +14327,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -14483,7 +14483,7 @@
         <v>1041</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -15011,7 +15011,7 @@
         <v>1043</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -15209,7 +15209,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -15761,7 +15761,7 @@
         <v>1044</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -15909,7 +15909,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -16069,7 +16069,7 @@
         <v>1045</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -16443,7 +16443,7 @@
         <v>1048</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -17105,7 +17105,7 @@
         <v>1050</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -17269,7 +17269,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -17859,7 +17859,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -18267,7 +18267,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -19023,7 +19023,7 @@
         <v>1052</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -19235,7 +19235,7 @@
         <v>1053</v>
       </c>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -19383,7 +19383,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -19701,7 +19701,7 @@
         <v>1054</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -19959,7 +19959,7 @@
         <v>1055</v>
       </c>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -20107,7 +20107,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -20269,7 +20269,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -20487,7 +20487,7 @@
         <v>1057</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -21781,7 +21781,7 @@
         <v>1060</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -21929,7 +21929,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -22085,7 +22085,7 @@
         <v>1061</v>
       </c>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -22233,7 +22233,7 @@
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -22613,7 +22613,7 @@
         <v>1063</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -23025,7 +23025,7 @@
         <v>1064</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -23225,7 +23225,7 @@
         <v>1065</v>
       </c>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -23423,7 +23423,7 @@
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -23569,7 +23569,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -24457,7 +24457,7 @@
         <v>1066</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="K352" s="2"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -24761,7 +24761,7 @@
         <v>1067</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -24909,7 +24909,7 @@
       </c>
       <c r="K358" s="2"/>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -25677,7 +25677,7 @@
         <v>1068</v>
       </c>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -25825,7 +25825,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -25987,7 +25987,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -26147,7 +26147,7 @@
         <v>1069</v>
       </c>
       <c r="L382" s="4"/>
-      <c r="M382" s="2" t="s">
+      <c r="M382" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N382" s="2" t="s">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -26553,7 +26553,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -26963,7 +26963,7 @@
         <v>1071</v>
       </c>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="K401" s="2"/>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -27273,7 +27273,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -27489,7 +27489,7 @@
       </c>
       <c r="K408" s="2"/>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K411" s="2"/>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -27789,7 +27789,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -27935,7 +27935,7 @@
       </c>
       <c r="K417" s="2"/>
       <c r="L417" s="4"/>
-      <c r="M417" s="2" t="s">
+      <c r="M417" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N417" s="2" t="s">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="K420" s="2"/>
       <c r="L420" s="4"/>
-      <c r="M420" s="2" t="s">
+      <c r="M420" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N420" s="2" t="s">
@@ -28235,7 +28235,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -28391,7 +28391,7 @@
         <v>1073</v>
       </c>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -28539,7 +28539,7 @@
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="4"/>
-      <c r="M429" s="2" t="s">
+      <c r="M429" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N429" s="2" t="s">
@@ -28703,7 +28703,7 @@
         <v>1074</v>
       </c>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -28869,7 +28869,7 @@
         <v>1075</v>
       </c>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -29035,7 +29035,7 @@
         <v>1076</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -29201,7 +29201,7 @@
         <v>1077</v>
       </c>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -29363,7 +29363,7 @@
         <v>1078</v>
       </c>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -29621,7 +29621,7 @@
         <v>1079</v>
       </c>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -29879,7 +29879,7 @@
         <v>1080</v>
       </c>
       <c r="L454" s="4"/>
-      <c r="M454" s="2" t="s">
+      <c r="M454" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N454" s="2" t="s">
@@ -30135,7 +30135,7 @@
       </c>
       <c r="K459" s="2"/>
       <c r="L459" s="4"/>
-      <c r="M459" s="2" t="s">
+      <c r="M459" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N459" s="2" t="s">
@@ -30391,7 +30391,7 @@
         <v>1081</v>
       </c>
       <c r="L464" s="4"/>
-      <c r="M464" s="2" t="s">
+      <c r="M464" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N464" s="2" t="s">
@@ -30661,7 +30661,7 @@
         <v>1082</v>
       </c>
       <c r="L469" s="4"/>
-      <c r="M469" s="2" t="s">
+      <c r="M469" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N469" s="2" t="s">
@@ -30877,7 +30877,7 @@
         <v>1083</v>
       </c>
       <c r="L473" s="4"/>
-      <c r="M473" s="2" t="s">
+      <c r="M473" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N473" s="2" t="s">
@@ -31093,7 +31093,7 @@
         <v>1084</v>
       </c>
       <c r="L477" s="4"/>
-      <c r="M477" s="2" t="s">
+      <c r="M477" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N477" s="2" t="s">
@@ -31417,7 +31417,7 @@
         <v>1080</v>
       </c>
       <c r="L483" s="4"/>
-      <c r="M483" s="2" t="s">
+      <c r="M483" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N483" s="2" t="s">
@@ -31687,7 +31687,7 @@
         <v>1085</v>
       </c>
       <c r="L488" s="4"/>
-      <c r="M488" s="2" t="s">
+      <c r="M488" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N488" s="2" t="s">
@@ -31845,7 +31845,7 @@
         <v>1086</v>
       </c>
       <c r="L491" s="4"/>
-      <c r="M491" s="2" t="s">
+      <c r="M491" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N491" s="2" t="s">
@@ -32149,7 +32149,7 @@
         <v>1087</v>
       </c>
       <c r="L497" s="4"/>
-      <c r="M497" s="2" t="s">
+      <c r="M497" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N497" s="2" t="s">
@@ -32297,7 +32297,7 @@
       </c>
       <c r="K500" s="2"/>
       <c r="L500" s="4"/>
-      <c r="M500" s="2" t="s">
+      <c r="M500" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N500" s="2" t="s">
@@ -32455,7 +32455,7 @@
       </c>
       <c r="K503" s="2"/>
       <c r="L503" s="4"/>
-      <c r="M503" s="2" t="s">
+      <c r="M503" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N503" s="2" t="s">
@@ -32601,7 +32601,7 @@
       </c>
       <c r="K506" s="2"/>
       <c r="L506" s="4"/>
-      <c r="M506" s="2" t="s">
+      <c r="M506" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N506" s="2" t="s">
@@ -32813,7 +32813,7 @@
       </c>
       <c r="K510" s="2"/>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -32959,7 +32959,7 @@
       </c>
       <c r="K513" s="2"/>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -33281,7 +33281,7 @@
         <v>1088</v>
       </c>
       <c r="L519" s="4"/>
-      <c r="M519" s="2" t="s">
+      <c r="M519" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N519" s="2" t="s">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="K522" s="2"/>
       <c r="L522" s="4"/>
-      <c r="M522" s="2" t="s">
+      <c r="M522" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N522" s="2" t="s">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="K525" s="2"/>
       <c r="L525" s="4"/>
-      <c r="M525" s="2" t="s">
+      <c r="M525" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N525" s="2" t="s">
@@ -33803,7 +33803,7 @@
       </c>
       <c r="K529" s="2"/>
       <c r="L529" s="4"/>
-      <c r="M529" s="2" t="s">
+      <c r="M529" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N529" s="2" t="s">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="K534" s="2"/>
       <c r="L534" s="4"/>
-      <c r="M534" s="2" t="s">
+      <c r="M534" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N534" s="2" t="s">
@@ -34251,7 +34251,7 @@
         <v>1089</v>
       </c>
       <c r="L538" s="4"/>
-      <c r="M538" s="2" t="s">
+      <c r="M538" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N538" s="2" t="s">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="K541" s="2"/>
       <c r="L541" s="4"/>
-      <c r="M541" s="2" t="s">
+      <c r="M541" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N541" s="2" t="s">
@@ -34563,7 +34563,7 @@
         <v>1075</v>
       </c>
       <c r="L544" s="4"/>
-      <c r="M544" s="2" t="s">
+      <c r="M544" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N544" s="2" t="s">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="K547" s="2"/>
       <c r="L547" s="4"/>
-      <c r="M547" s="2" t="s">
+      <c r="M547" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N547" s="2" t="s">
@@ -34869,7 +34869,7 @@
       </c>
       <c r="K550" s="2"/>
       <c r="L550" s="4"/>
-      <c r="M550" s="2" t="s">
+      <c r="M550" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N550" s="2" t="s">
@@ -35305,7 +35305,7 @@
       </c>
       <c r="K558" s="2"/>
       <c r="L558" s="4"/>
-      <c r="M558" s="2" t="s">
+      <c r="M558" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N558" s="2" t="s">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="K561" s="2"/>
       <c r="L561" s="4"/>
-      <c r="M561" s="2" t="s">
+      <c r="M561" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N561" s="2" t="s">
@@ -35867,7 +35867,7 @@
       </c>
       <c r="K569" s="2"/>
       <c r="L569" s="4"/>
-      <c r="M569" s="2" t="s">
+      <c r="M569" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N569" s="2" t="s">
@@ -36127,7 +36127,7 @@
         <v>1091</v>
       </c>
       <c r="L574" s="4"/>
-      <c r="M574" s="2" t="s">
+      <c r="M574" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N574" s="2" t="s">
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K577" s="2"/>
       <c r="L577" s="4"/>
-      <c r="M577" s="2" t="s">
+      <c r="M577" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N577" s="2" t="s">
@@ -36439,7 +36439,7 @@
         <v>1092</v>
       </c>
       <c r="L580" s="4"/>
-      <c r="M580" s="2" t="s">
+      <c r="M580" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N580" s="2" t="s">
@@ -36603,7 +36603,7 @@
       </c>
       <c r="K583" s="2"/>
       <c r="L583" s="4"/>
-      <c r="M583" s="2" t="s">
+      <c r="M583" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N583" s="2" t="s">
@@ -36819,7 +36819,7 @@
       </c>
       <c r="K587" s="2"/>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -36965,7 +36965,7 @@
       </c>
       <c r="K590" s="2"/>
       <c r="L590" s="4"/>
-      <c r="M590" s="2" t="s">
+      <c r="M590" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N590" s="2" t="s">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="K594" s="2"/>
       <c r="L594" s="4"/>
-      <c r="M594" s="2" t="s">
+      <c r="M594" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N594" s="2" t="s">
@@ -37395,7 +37395,7 @@
         <v>1092</v>
       </c>
       <c r="L598" s="4"/>
-      <c r="M598" s="2" t="s">
+      <c r="M598" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N598" s="2" t="s">
@@ -37657,7 +37657,7 @@
         <v>1094</v>
       </c>
       <c r="L603" s="4"/>
-      <c r="M603" s="2" t="s">
+      <c r="M603" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N603" s="2" t="s">
@@ -37805,7 +37805,7 @@
       </c>
       <c r="K606" s="2"/>
       <c r="L606" s="4"/>
-      <c r="M606" s="2" t="s">
+      <c r="M606" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N606" s="2" t="s">
@@ -37969,7 +37969,7 @@
         <v>1095</v>
       </c>
       <c r="L609" s="4"/>
-      <c r="M609" s="2" t="s">
+      <c r="M609" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N609" s="2" t="s">
@@ -38125,7 +38125,7 @@
       </c>
       <c r="K612" s="2"/>
       <c r="L612" s="4"/>
-      <c r="M612" s="2" t="s">
+      <c r="M612" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N612" s="2" t="s">
@@ -38977,7 +38977,7 @@
       </c>
       <c r="K628" s="2"/>
       <c r="L628" s="4"/>
-      <c r="M628" s="2" t="s">
+      <c r="M628" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N628" s="2" t="s">
@@ -39137,7 +39137,7 @@
         <v>1097</v>
       </c>
       <c r="L631" s="4"/>
-      <c r="M631" s="2" t="s">
+      <c r="M631" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N631" s="2" t="s">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="K635" s="2"/>
       <c r="L635" s="4"/>
-      <c r="M635" s="2" t="s">
+      <c r="M635" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N635" s="2" t="s">
@@ -39509,7 +39509,7 @@
       </c>
       <c r="K638" s="2"/>
       <c r="L638" s="4"/>
-      <c r="M638" s="2" t="s">
+      <c r="M638" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N638" s="2" t="s">
@@ -39721,7 +39721,7 @@
       </c>
       <c r="K642" s="2"/>
       <c r="L642" s="4"/>
-      <c r="M642" s="2" t="s">
+      <c r="M642" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N642" s="2" t="s">
@@ -40077,7 +40077,7 @@
         <v>1098</v>
       </c>
       <c r="L649" s="4"/>
-      <c r="M649" s="2" t="s">
+      <c r="M649" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N649" s="2" t="s">
@@ -40381,7 +40381,7 @@
         <v>1099</v>
       </c>
       <c r="L655" s="4"/>
-      <c r="M655" s="2" t="s">
+      <c r="M655" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N655" s="2" t="s">
@@ -40531,7 +40531,7 @@
         <v>1100</v>
       </c>
       <c r="L658" s="4"/>
-      <c r="M658" s="2" t="s">
+      <c r="M658" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N658" s="2" t="s">
@@ -40749,7 +40749,7 @@
       </c>
       <c r="K662" s="2"/>
       <c r="L662" s="4"/>
-      <c r="M662" s="2" t="s">
+      <c r="M662" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N662" s="2" t="s">
@@ -40913,7 +40913,7 @@
         <v>1102</v>
       </c>
       <c r="L665" s="4"/>
-      <c r="M665" s="2" t="s">
+      <c r="M665" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N665" s="2" t="s">
@@ -41079,7 +41079,7 @@
         <v>1103</v>
       </c>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -41239,7 +41239,7 @@
       </c>
       <c r="K671" s="2"/>
       <c r="L671" s="4"/>
-      <c r="M671" s="2" t="s">
+      <c r="M671" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N671" s="2" t="s">
@@ -41457,7 +41457,7 @@
         <v>1105</v>
       </c>
       <c r="L675" s="4"/>
-      <c r="M675" s="2" t="s">
+      <c r="M675" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N675" s="2" t="s">
@@ -41869,7 +41869,7 @@
         <v>1106</v>
       </c>
       <c r="L683" s="4"/>
-      <c r="M683" s="2" t="s">
+      <c r="M683" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N683" s="2" t="s">
@@ -42227,7 +42227,7 @@
         <v>1107</v>
       </c>
       <c r="L690" s="4"/>
-      <c r="M690" s="2" t="s">
+      <c r="M690" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N690" s="2" t="s">
@@ -42427,7 +42427,7 @@
         <v>1108</v>
       </c>
       <c r="L694" s="4"/>
-      <c r="M694" s="2" t="s">
+      <c r="M694" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N694" s="2" t="s">
@@ -42575,7 +42575,7 @@
       </c>
       <c r="K697" s="2"/>
       <c r="L697" s="4"/>
-      <c r="M697" s="2" t="s">
+      <c r="M697" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N697" s="2" t="s">
@@ -42729,7 +42729,7 @@
       </c>
       <c r="K700" s="2"/>
       <c r="L700" s="4"/>
-      <c r="M700" s="2" t="s">
+      <c r="M700" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N700" s="2" t="s">
@@ -42877,7 +42877,7 @@
         <v>1109</v>
       </c>
       <c r="L703" s="4"/>
-      <c r="M703" s="2" t="s">
+      <c r="M703" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N703" s="2" t="s">
@@ -43037,7 +43037,7 @@
       </c>
       <c r="K706" s="2"/>
       <c r="L706" s="4"/>
-      <c r="M706" s="2" t="s">
+      <c r="M706" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N706" s="2" t="s">
@@ -43359,7 +43359,7 @@
         <v>1111</v>
       </c>
       <c r="L712" s="4"/>
-      <c r="M712" s="2" t="s">
+      <c r="M712" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N712" s="2" t="s">
@@ -43507,7 +43507,7 @@
       </c>
       <c r="K715" s="2"/>
       <c r="L715" s="4"/>
-      <c r="M715" s="2" t="s">
+      <c r="M715" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N715" s="2" t="s">
@@ -43661,7 +43661,7 @@
       </c>
       <c r="K718" s="2"/>
       <c r="L718" s="4"/>
-      <c r="M718" s="2" t="s">
+      <c r="M718" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N718" s="2" t="s">
@@ -43807,7 +43807,7 @@
       </c>
       <c r="K721" s="2"/>
       <c r="L721" s="4"/>
-      <c r="M721" s="2" t="s">
+      <c r="M721" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N721" s="2" t="s">
@@ -43965,7 +43965,7 @@
       </c>
       <c r="K724" s="2"/>
       <c r="L724" s="4"/>
-      <c r="M724" s="2" t="s">
+      <c r="M724" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N724" s="2" t="s">
@@ -44337,7 +44337,7 @@
         <v>1108</v>
       </c>
       <c r="L731" s="4"/>
-      <c r="M731" s="2" t="s">
+      <c r="M731" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N731" s="2" t="s">
@@ -44485,7 +44485,7 @@
       </c>
       <c r="K734" s="2"/>
       <c r="L734" s="4"/>
-      <c r="M734" s="2" t="s">
+      <c r="M734" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N734" s="2" t="s">
@@ -44639,7 +44639,7 @@
       </c>
       <c r="K737" s="2"/>
       <c r="L737" s="4"/>
-      <c r="M737" s="2" t="s">
+      <c r="M737" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N737" s="2" t="s">
@@ -44785,7 +44785,7 @@
       </c>
       <c r="K740" s="2"/>
       <c r="L740" s="4"/>
-      <c r="M740" s="2" t="s">
+      <c r="M740" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N740" s="2" t="s">
@@ -44943,7 +44943,7 @@
       </c>
       <c r="K743" s="2"/>
       <c r="L743" s="4"/>
-      <c r="M743" s="2" t="s">
+      <c r="M743" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N743" s="2" t="s">
@@ -45099,7 +45099,7 @@
         <v>1108</v>
       </c>
       <c r="L746" s="4"/>
-      <c r="M746" s="2" t="s">
+      <c r="M746" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N746" s="2" t="s">
@@ -45389,7 +45389,7 @@
       </c>
       <c r="K752" s="2"/>
       <c r="L752" s="4"/>
-      <c r="M752" s="2" t="s">
+      <c r="M752" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N752" s="2" t="s">
@@ -45549,7 +45549,7 @@
         <v>1113</v>
       </c>
       <c r="L755" s="4"/>
-      <c r="M755" s="2" t="s">
+      <c r="M755" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N755" s="2" t="s">
@@ -45697,7 +45697,7 @@
       </c>
       <c r="K758" s="2"/>
       <c r="L758" s="4"/>
-      <c r="M758" s="2" t="s">
+      <c r="M758" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N758" s="2" t="s">
@@ -45855,7 +45855,7 @@
       </c>
       <c r="K761" s="2"/>
       <c r="L761" s="4"/>
-      <c r="M761" s="2" t="s">
+      <c r="M761" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N761" s="2" t="s">
@@ -46013,7 +46013,7 @@
       </c>
       <c r="K764" s="2"/>
       <c r="L764" s="4"/>
-      <c r="M764" s="2" t="s">
+      <c r="M764" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N764" s="2" t="s">
@@ -46159,7 +46159,7 @@
       </c>
       <c r="K767" s="2"/>
       <c r="L767" s="4"/>
-      <c r="M767" s="2" t="s">
+      <c r="M767" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N767" s="2" t="s">
@@ -46319,7 +46319,7 @@
         <v>1114</v>
       </c>
       <c r="L770" s="4"/>
-      <c r="M770" s="2" t="s">
+      <c r="M770" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N770" s="2" t="s">
@@ -46467,7 +46467,7 @@
       </c>
       <c r="K773" s="2"/>
       <c r="L773" s="4"/>
-      <c r="M773" s="2" t="s">
+      <c r="M773" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N773" s="2" t="s">
@@ -46625,7 +46625,7 @@
       </c>
       <c r="K776" s="2"/>
       <c r="L776" s="4"/>
-      <c r="M776" s="2" t="s">
+      <c r="M776" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N776" s="2" t="s">
@@ -47035,7 +47035,7 @@
         <v>1115</v>
       </c>
       <c r="L784" s="4"/>
-      <c r="M784" s="2" t="s">
+      <c r="M784" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N784" s="2" t="s">
@@ -47183,7 +47183,7 @@
       </c>
       <c r="K787" s="2"/>
       <c r="L787" s="4"/>
-      <c r="M787" s="2" t="s">
+      <c r="M787" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N787" s="2" t="s">
@@ -47341,7 +47341,7 @@
       </c>
       <c r="K790" s="2"/>
       <c r="L790" s="4"/>
-      <c r="M790" s="2" t="s">
+      <c r="M790" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N790" s="2" t="s">
@@ -47749,7 +47749,7 @@
       </c>
       <c r="K798" s="2"/>
       <c r="L798" s="4"/>
-      <c r="M798" s="2" t="s">
+      <c r="M798" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N798" s="2" t="s">
@@ -48171,7 +48171,7 @@
         <v>1117</v>
       </c>
       <c r="L806" s="4"/>
-      <c r="M806" s="2" t="s">
+      <c r="M806" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N806" s="2" t="s">
@@ -48319,7 +48319,7 @@
       </c>
       <c r="K809" s="2"/>
       <c r="L809" s="4"/>
-      <c r="M809" s="2" t="s">
+      <c r="M809" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N809" s="2" t="s">
@@ -48477,7 +48477,7 @@
       </c>
       <c r="K812" s="2"/>
       <c r="L812" s="4"/>
-      <c r="M812" s="2" t="s">
+      <c r="M812" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N812" s="2" t="s">
@@ -48721,7 +48721,7 @@
         <v>1118</v>
       </c>
       <c r="L817" s="4"/>
-      <c r="M817" s="2" t="s">
+      <c r="M817" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N817" s="2" t="s">
@@ -49035,7 +49035,7 @@
       </c>
       <c r="K823" s="2"/>
       <c r="L823" s="4"/>
-      <c r="M823" s="2" t="s">
+      <c r="M823" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N823" s="2" t="s">
@@ -49195,7 +49195,7 @@
         <v>1118</v>
       </c>
       <c r="L826" s="4"/>
-      <c r="M826" s="2" t="s">
+      <c r="M826" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N826" s="2" t="s">
@@ -49729,7 +49729,7 @@
       </c>
       <c r="K836" s="2"/>
       <c r="L836" s="4"/>
-      <c r="M836" s="2" t="s">
+      <c r="M836" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N836" s="2" t="s">
@@ -49889,7 +49889,7 @@
         <v>1120</v>
       </c>
       <c r="L839" s="4"/>
-      <c r="M839" s="2" t="s">
+      <c r="M839" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N839" s="2" t="s">
@@ -50311,7 +50311,7 @@
       </c>
       <c r="K847" s="2"/>
       <c r="L847" s="4"/>
-      <c r="M847" s="2" t="s">
+      <c r="M847" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N847" s="2" t="s">
@@ -50471,7 +50471,7 @@
       </c>
       <c r="K850" s="2"/>
       <c r="L850" s="4"/>
-      <c r="M850" s="2" t="s">
+      <c r="M850" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N850" s="2"/>
